--- a/biology/Médecine/Symphyse/Symphyse.xlsx
+++ b/biology/Médecine/Symphyse/Symphyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une symphyse (ou articulation cartilagineuse secondaire) est une articulation cartilagineuse dans laquelle les os sont reliés par du fibrocartilage. Du point de vue fonctionnel, c'est une amphiarthrose.
 Dans l'anatomie humaine, on retrouve ce genre d'articulation :
